--- a/Ficheiros parte_1/Lista_final_otimizações.xlsx
+++ b/Ficheiros parte_1/Lista_final_otimizações.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago Machado\OneDrive - Universidade do Minho\Bioinformática\Biologia de Sistemas\Trabalho_git\Ficheiros parte_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uminho365-my.sharepoint.com/personal/pg42884_uminho_pt/Documents/Bioinformática/Biologia de Sistemas/Trabalho_git/Ficheiros parte_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="126" documentId="13_ncr:1_{FCCBBF40-7684-467B-86E3-9C4E6912265C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7E232388-149D-4C81-881C-40BC83B2EE35}"/>
+  <xr:revisionPtr revIDLastSave="145" documentId="13_ncr:1_{FCCBBF40-7684-467B-86E3-9C4E6912265C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F467339D-38EC-4740-B6E1-A326FFFE4F8B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{195300DC-95EF-42D1-A192-37904B62EAD6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{195300DC-95EF-42D1-A192-37904B62EAD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Single_gene_deletions" sheetId="4" r:id="rId1"/>
-    <sheet name="RKO_list" sheetId="5" r:id="rId2"/>
-    <sheet name="ROU_list" sheetId="7" r:id="rId3"/>
-    <sheet name="GKO_list" sheetId="10" r:id="rId4"/>
+    <sheet name="GKO_list" sheetId="10" r:id="rId2"/>
+    <sheet name="RKO_list" sheetId="5" r:id="rId3"/>
+    <sheet name="ROU_list" sheetId="7" r:id="rId4"/>
     <sheet name="GOU_list" sheetId="12" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="DadosExternos_1" localSheetId="3" hidden="1">GKO_list!#REF!</definedName>
+    <definedName name="DadosExternos_1" localSheetId="1" hidden="1">GKO_list!#REF!</definedName>
     <definedName name="DadosExternos_1" localSheetId="4" hidden="1">GOU_list!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="325">
   <si>
     <t xml:space="preserve">b3816 </t>
   </si>
@@ -1045,6 +1045,9 @@
   </si>
   <si>
     <t>Reações</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knockout Biomass Flux </t>
   </si>
 </sst>
 </file>
@@ -1052,11 +1055,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="0.0000000000000"/>
-    <numFmt numFmtId="173" formatCode="0.0000000000000000"/>
-    <numFmt numFmtId="174" formatCode="0.00000000000000000"/>
-    <numFmt numFmtId="188" formatCode="_(* #,##0.0000000000000_);_(* \(#,##0.0000000000000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="166" formatCode="0.0000000000000000"/>
+    <numFmt numFmtId="167" formatCode="0.00000000000000000"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0.0000000000000_);_(* \(#,##0.0000000000000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -1117,9 +1120,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1138,28 +1141,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
@@ -1174,10 +1174,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
@@ -1186,10 +1186,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1563,18 +1569,18 @@
   <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>41</v>
       </c>
@@ -1584,9 +1590,11 @@
       <c r="C1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1" s="25" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>1.75085714942886E-2</v>
       </c>
@@ -1596,9 +1604,11 @@
       <c r="C2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>1.75085714942886E-2</v>
       </c>
@@ -1608,9 +1618,11 @@
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>1.75085714942886E-2</v>
       </c>
@@ -1620,9 +1632,11 @@
       <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>1.7508571484412001E-2</v>
       </c>
@@ -1632,9 +1646,11 @@
       <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>1.7508571484412001E-2</v>
       </c>
@@ -1644,9 +1660,11 @@
       <c r="C6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>1.7508571484412001E-2</v>
       </c>
@@ -1656,9 +1674,11 @@
       <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>1.7508571484412001E-2</v>
       </c>
@@ -1668,9 +1688,11 @@
       <c r="C8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>1.7508571483332E-2</v>
       </c>
@@ -1680,9 +1702,11 @@
       <c r="C9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>1.7508571483332E-2</v>
       </c>
@@ -1692,9 +1716,11 @@
       <c r="C10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>1.7508571483332E-2</v>
       </c>
@@ -1704,9 +1730,11 @@
       <c r="C11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>1.7508571483332E-2</v>
       </c>
@@ -1716,9 +1744,11 @@
       <c r="C12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>1.7508571483332E-2</v>
       </c>
@@ -1728,9 +1758,11 @@
       <c r="C13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>1.7508571483332E-2</v>
       </c>
@@ -1740,9 +1772,11 @@
       <c r="C14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>1.7508571478961302E-2</v>
       </c>
@@ -1752,9 +1786,11 @@
       <c r="C15" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>1.75085714774766E-2</v>
       </c>
@@ -1764,9 +1800,11 @@
       <c r="C16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>1.75085714774766E-2</v>
       </c>
@@ -1776,9 +1814,11 @@
       <c r="C17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>1.75085714774766E-2</v>
       </c>
@@ -1788,9 +1828,11 @@
       <c r="C18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>1.75085714774766E-2</v>
       </c>
@@ -1800,9 +1842,11 @@
       <c r="C19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>1.75085714774766E-2</v>
       </c>
@@ -1812,9 +1856,11 @@
       <c r="C20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>1.75085714774766E-2</v>
       </c>
@@ -1824,9 +1870,11 @@
       <c r="C21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>1.75085714774766E-2</v>
       </c>
@@ -1836,9 +1884,11 @@
       <c r="C22" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>1.75085714774766E-2</v>
       </c>
@@ -1848,9 +1898,11 @@
       <c r="C23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>1.75085714774766E-2</v>
       </c>
@@ -1860,9 +1912,11 @@
       <c r="C24" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>1.75085714774766E-2</v>
       </c>
@@ -1872,9 +1926,11 @@
       <c r="C25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>1.75085714774766E-2</v>
       </c>
@@ -1884,9 +1940,11 @@
       <c r="C26" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>1.75085714774766E-2</v>
       </c>
@@ -1896,9 +1954,11 @@
       <c r="C27" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>1.75085714774766E-2</v>
       </c>
@@ -1908,9 +1968,11 @@
       <c r="C28" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>1.75085714774766E-2</v>
       </c>
@@ -1920,9 +1982,11 @@
       <c r="C29" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>1.75085714774766E-2</v>
       </c>
@@ -1932,9 +1996,11 @@
       <c r="C30" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>1.7508571474308999E-2</v>
       </c>
@@ -1944,9 +2010,11 @@
       <c r="C31" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
         <v>1.7508571473547199E-2</v>
       </c>
@@ -1956,9 +2024,11 @@
       <c r="C32" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>1.7508571473547199E-2</v>
       </c>
@@ -1968,9 +2038,11 @@
       <c r="C33" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>1.7508571473547199E-2</v>
       </c>
@@ -1980,9 +2052,11 @@
       <c r="C34" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
         <v>1.7508571473547199E-2</v>
       </c>
@@ -1992,9 +2066,11 @@
       <c r="C35" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
         <v>1.7508571473547199E-2</v>
       </c>
@@ -2004,9 +2080,11 @@
       <c r="C36" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
         <v>1.7508571473547199E-2</v>
       </c>
@@ -2016,9 +2094,11 @@
       <c r="C37" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="9">
         <v>1.7508571473547199E-2</v>
       </c>
@@ -2028,9 +2108,11 @@
       <c r="C38" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="9">
         <v>1.7508571473547199E-2</v>
       </c>
@@ -2040,9 +2122,11 @@
       <c r="C39" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="9">
         <v>1.7508571473547199E-2</v>
       </c>
@@ -2052,9 +2136,11 @@
       <c r="C40" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="9">
         <v>1.7508571473547199E-2</v>
       </c>
@@ -2064,183 +2150,185 @@
       <c r="C41" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D100" s="1"/>
     </row>
   </sheetData>
@@ -2252,22 +2340,1947 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CB4A4CA-A7DE-4B21-B426-D69CFF982BF9}">
+  <dimension ref="A1:G92"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="8.5546875" style="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="23">
+        <v>2.45120000163296E-2</v>
+      </c>
+      <c r="B2" s="23">
+        <v>7.3536000048988999E-3</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="23">
+        <v>2.4512000016557001E-2</v>
+      </c>
+      <c r="B3" s="23">
+        <v>7.3536000049671197E-3</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="23">
+        <v>2.4512000017807602E-2</v>
+      </c>
+      <c r="B4" s="23">
+        <v>7.3536000053422796E-3</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="23">
+        <v>2.45120000182623E-2</v>
+      </c>
+      <c r="B5" s="23">
+        <v>7.3536000054787096E-3</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="23">
+        <v>2.45120000182623E-2</v>
+      </c>
+      <c r="B6" s="23">
+        <v>7.3536000054787096E-3</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="23">
+        <v>2.4512000018489698E-2</v>
+      </c>
+      <c r="B7" s="23">
+        <v>7.3536000055469198E-3</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="23">
+        <v>2.4512000019285499E-2</v>
+      </c>
+      <c r="B8" s="23">
+        <v>7.3536000057856602E-3</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="23">
+        <v>2.45120000193992E-2</v>
+      </c>
+      <c r="B9" s="23">
+        <v>7.3536000058197701E-3</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="23">
+        <v>2.45120000193992E-2</v>
+      </c>
+      <c r="B10" s="23">
+        <v>7.3536000058197701E-3</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="23">
+        <v>2.45120000193992E-2</v>
+      </c>
+      <c r="B11" s="23">
+        <v>7.3536000058197701E-3</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="23">
+        <v>2.45120000193992E-2</v>
+      </c>
+      <c r="B12" s="23">
+        <v>7.3536000058197701E-3</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="23">
+        <v>2.45120000206497E-2</v>
+      </c>
+      <c r="B13" s="23">
+        <v>7.3536000061949301E-3</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="23">
+        <v>2.45120000206497E-2</v>
+      </c>
+      <c r="B14" s="23">
+        <v>7.3536000061949301E-3</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="23">
+        <v>2.45120000206497E-2</v>
+      </c>
+      <c r="B15" s="23">
+        <v>7.3536000061949301E-3</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="23">
+        <v>2.45120000212182E-2</v>
+      </c>
+      <c r="B16" s="23">
+        <v>7.3536000063654603E-3</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="23">
+        <v>2.4512000021445601E-2</v>
+      </c>
+      <c r="B17" s="23">
+        <v>7.35360000643368E-3</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="23">
+        <v>2.4512000021445601E-2</v>
+      </c>
+      <c r="B18" s="23">
+        <v>7.35360000643368E-3</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="23">
+        <v>2.4512000021445601E-2</v>
+      </c>
+      <c r="B19" s="23">
+        <v>7.35360000643368E-3</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="23">
+        <v>2.4512000021786599E-2</v>
+      </c>
+      <c r="B20" s="23">
+        <v>7.3536000065359897E-3</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="24">
+        <v>2.4512000022923499E-2</v>
+      </c>
+      <c r="B21" s="24">
+        <v>7.3536000068770502E-3</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="23">
+        <v>2.4512000023491898E-2</v>
+      </c>
+      <c r="B22" s="23">
+        <v>7.3536000070475796E-3</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="23">
+        <v>2.4512000023605599E-2</v>
+      </c>
+      <c r="B23" s="23">
+        <v>7.3536000070816903E-3</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="23">
+        <v>2.45120000273573E-2</v>
+      </c>
+      <c r="B24" s="23">
+        <v>7.3536000082071902E-3</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="23">
+        <v>2.4512000028266801E-2</v>
+      </c>
+      <c r="B25" s="23">
+        <v>7.3536000084800397E-3</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="23">
+        <v>2.4512000029631002E-2</v>
+      </c>
+      <c r="B26" s="23">
+        <v>7.3536000088893104E-3</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="23">
+        <v>2.4512000029631002E-2</v>
+      </c>
+      <c r="B27" s="23">
+        <v>7.3536000088893104E-3</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="23">
+        <v>2.4512000029631002E-2</v>
+      </c>
+      <c r="B28" s="23">
+        <v>7.3536000088893104E-3</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="23">
+        <v>2.4512000029631002E-2</v>
+      </c>
+      <c r="B29" s="23">
+        <v>7.3536000088893104E-3</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="23">
+        <v>2.4512000029631002E-2</v>
+      </c>
+      <c r="B30" s="23">
+        <v>7.3536000088893104E-3</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="23">
+        <v>2.4512000031450001E-2</v>
+      </c>
+      <c r="B31" s="23">
+        <v>7.3536000094350101E-3</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="23">
+        <v>2.4512000033951101E-2</v>
+      </c>
+      <c r="B32" s="23">
+        <v>7.3536000101853396E-3</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="23">
+        <v>2.4512000033951101E-2</v>
+      </c>
+      <c r="B33" s="23">
+        <v>7.3536000101853396E-3</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="23">
+        <v>2.4512000033951101E-2</v>
+      </c>
+      <c r="B34" s="23">
+        <v>7.3536000101853396E-3</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="23">
+        <v>2.4512000033951101E-2</v>
+      </c>
+      <c r="B35" s="23">
+        <v>7.3536000101853396E-3</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="23">
+        <v>2.4512000033951101E-2</v>
+      </c>
+      <c r="B36" s="23">
+        <v>7.3536000101853396E-3</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="23">
+        <v>2.4512000033951101E-2</v>
+      </c>
+      <c r="B37" s="23">
+        <v>7.3536000101853396E-3</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="23">
+        <v>2.4512000033951101E-2</v>
+      </c>
+      <c r="B38" s="23">
+        <v>7.3536000101853396E-3</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="23">
+        <v>2.4512000033951101E-2</v>
+      </c>
+      <c r="B39" s="23">
+        <v>7.3536000101853396E-3</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="23">
+        <v>2.4512000035770101E-2</v>
+      </c>
+      <c r="B40" s="23">
+        <v>7.3536000107310403E-3</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="23">
+        <v>2.4512000036338501E-2</v>
+      </c>
+      <c r="B41" s="23">
+        <v>7.3536000109015696E-3</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="23">
+        <v>2.4512000037589101E-2</v>
+      </c>
+      <c r="B42" s="23">
+        <v>7.3536000112767296E-3</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="23">
+        <v>2.4512000037816499E-2</v>
+      </c>
+      <c r="B43" s="23">
+        <v>7.3536000113449502E-3</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="23">
+        <v>2.45120000380438E-2</v>
+      </c>
+      <c r="B44" s="23">
+        <v>7.3536000114131604E-3</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="23">
+        <v>2.4512000038726001E-2</v>
+      </c>
+      <c r="B45" s="23">
+        <v>7.3536000116177997E-3</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="23">
+        <v>2.4512000038726001E-2</v>
+      </c>
+      <c r="B46" s="23">
+        <v>7.3536000116177997E-3</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="23">
+        <v>2.4512000038726001E-2</v>
+      </c>
+      <c r="B47" s="23">
+        <v>7.3536000116177997E-3</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="23">
+        <v>2.4512000038726001E-2</v>
+      </c>
+      <c r="B48" s="23">
+        <v>7.3536000116177997E-3</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="23">
+        <v>2.4512000038839601E-2</v>
+      </c>
+      <c r="B49" s="23">
+        <v>7.3536000116519E-3</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="23">
+        <v>2.45120000436145E-2</v>
+      </c>
+      <c r="B50" s="23">
+        <v>7.3536000130843601E-3</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="23">
+        <v>2.4512000043728201E-2</v>
+      </c>
+      <c r="B51" s="23">
+        <v>7.3536000131184604E-3</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="23">
+        <v>2.4512000043728201E-2</v>
+      </c>
+      <c r="B52" s="23">
+        <v>7.3536000131184604E-3</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="23">
+        <v>2.4512000049526202E-2</v>
+      </c>
+      <c r="B53" s="23">
+        <v>7.3536000148578702E-3</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="23">
+        <v>2.45120000498673E-2</v>
+      </c>
+      <c r="B54" s="23">
+        <v>7.3536000149601903E-3</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="23">
+        <v>2.4512000050094601E-2</v>
+      </c>
+      <c r="B55" s="23">
+        <v>7.3536000150283996E-3</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="23">
+        <v>2.4512000050094601E-2</v>
+      </c>
+      <c r="B56" s="23">
+        <v>7.3536000150283996E-3</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="23">
+        <v>2.4512000056233701E-2</v>
+      </c>
+      <c r="B57" s="23">
+        <v>7.3536000168701304E-3</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="23">
+        <v>2.45120000585075E-2</v>
+      </c>
+      <c r="B58" s="23">
+        <v>7.3536000175522497E-3</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="23">
+        <v>2.4512000059530598E-2</v>
+      </c>
+      <c r="B59" s="23">
+        <v>7.3536000178592003E-3</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="23">
+        <v>2.4512000061804401E-2</v>
+      </c>
+      <c r="B60" s="23">
+        <v>7.3536000185413196E-3</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="23">
+        <v>2.4512000062600198E-2</v>
+      </c>
+      <c r="B61" s="23">
+        <v>7.3536000187800696E-3</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="23">
+        <v>2.4512000062600198E-2</v>
+      </c>
+      <c r="B62" s="23">
+        <v>7.3536000187800696E-3</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="23">
+        <v>2.45120000660108E-2</v>
+      </c>
+      <c r="B63" s="23">
+        <v>7.3536000198032503E-3</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="23">
+        <v>2.45120000660108E-2</v>
+      </c>
+      <c r="B64" s="23">
+        <v>7.3536000198032503E-3</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="23">
+        <v>2.45120000660108E-2</v>
+      </c>
+      <c r="B65" s="23">
+        <v>7.3536000198032503E-3</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="23">
+        <v>2.4512000066806601E-2</v>
+      </c>
+      <c r="B66" s="23">
+        <v>7.3536000200419898E-3</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="23">
+        <v>2.4512000066806601E-2</v>
+      </c>
+      <c r="B67" s="23">
+        <v>7.3536000200419898E-3</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="23">
+        <v>2.4512000072490901E-2</v>
+      </c>
+      <c r="B68" s="23">
+        <v>7.3536000217472898E-3</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="23">
+        <v>2.4512000072945701E-2</v>
+      </c>
+      <c r="B69" s="23">
+        <v>7.3536000218837197E-3</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="23">
+        <v>2.45120000771521E-2</v>
+      </c>
+      <c r="B70" s="23">
+        <v>7.35360002314564E-3</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="23">
+        <v>2.45120000814722E-2</v>
+      </c>
+      <c r="B71" s="23">
+        <v>7.3536000244416701E-3</v>
+      </c>
+      <c r="C71" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="23">
+        <v>2.4512000081926999E-2</v>
+      </c>
+      <c r="B72" s="23">
+        <v>7.3536000245780896E-3</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="23">
+        <v>2.4512000081926999E-2</v>
+      </c>
+      <c r="B73" s="23">
+        <v>7.3536000245780896E-3</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="23">
+        <v>2.4512000081926999E-2</v>
+      </c>
+      <c r="B74" s="23">
+        <v>7.3536000245780896E-3</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="23">
+        <v>2.4512000081926999E-2</v>
+      </c>
+      <c r="B75" s="23">
+        <v>7.3536000245780896E-3</v>
+      </c>
+      <c r="C75" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="23">
+        <v>2.4512000081926999E-2</v>
+      </c>
+      <c r="B76" s="23">
+        <v>7.3536000245780896E-3</v>
+      </c>
+      <c r="C76" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="23">
+        <v>2.4512000081926999E-2</v>
+      </c>
+      <c r="B77" s="23">
+        <v>7.3536000245780896E-3</v>
+      </c>
+      <c r="C77" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="23">
+        <v>2.4512000081926999E-2</v>
+      </c>
+      <c r="B78" s="23">
+        <v>7.3536000245780896E-3</v>
+      </c>
+      <c r="C78" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="23">
+        <v>2.4512000082950101E-2</v>
+      </c>
+      <c r="B79" s="23">
+        <v>7.3536000248850498E-3</v>
+      </c>
+      <c r="C79" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="23">
+        <v>2.4512000086815498E-2</v>
+      </c>
+      <c r="B80" s="23">
+        <v>7.35360002604465E-3</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="23">
+        <v>2.45120000909082E-2</v>
+      </c>
+      <c r="B81" s="23">
+        <v>7.3536000272724699E-3</v>
+      </c>
+      <c r="C81" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="23">
+        <v>2.45120000909082E-2</v>
+      </c>
+      <c r="B82" s="23">
+        <v>7.3536000272724699E-3</v>
+      </c>
+      <c r="C82" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="23">
+        <v>2.45120000909082E-2</v>
+      </c>
+      <c r="B83" s="23">
+        <v>7.3536000272724699E-3</v>
+      </c>
+      <c r="C83" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="23">
+        <v>2.45120000963652E-2</v>
+      </c>
+      <c r="B84" s="23">
+        <v>7.3536000289095597E-3</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="23">
+        <v>2.4512000103527401E-2</v>
+      </c>
+      <c r="B85" s="23">
+        <v>7.3536000310582402E-3</v>
+      </c>
+      <c r="C85" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="23">
+        <v>2.45120001088707E-2</v>
+      </c>
+      <c r="B86" s="23">
+        <v>7.3536000326612297E-3</v>
+      </c>
+      <c r="C86" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="23">
+        <v>2.4512000137178799E-2</v>
+      </c>
+      <c r="B87" s="23">
+        <v>7.3536000411536396E-3</v>
+      </c>
+      <c r="C87" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="23">
+        <v>2.4512000144454701E-2</v>
+      </c>
+      <c r="B88" s="23">
+        <v>7.3536000433364196E-3</v>
+      </c>
+      <c r="C88" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="23">
+        <v>2.4512000157756099E-2</v>
+      </c>
+      <c r="B89" s="23">
+        <v>7.35360004732683E-3</v>
+      </c>
+      <c r="C89" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="23">
+        <v>2.45120001897021E-2</v>
+      </c>
+      <c r="B90" s="23">
+        <v>7.3536000569106299E-3</v>
+      </c>
+      <c r="C90" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="23">
+        <v>2.4512000189815801E-2</v>
+      </c>
+      <c r="B91" s="23">
+        <v>7.3536000569447398E-3</v>
+      </c>
+      <c r="C91" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="23">
+        <v>2.4512000208232999E-2</v>
+      </c>
+      <c r="B92" s="23">
+        <v>7.3536000624699199E-3</v>
+      </c>
+      <c r="C92" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:G102">
+    <sortCondition ref="A2:A101"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="C1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD8A7BE7-042C-41F4-973B-FB3BB6DE25AF}">
   <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>41</v>
       </c>
@@ -2278,7 +4291,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>2.1428571605128101E-2</v>
       </c>
@@ -2289,7 +4302,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>2.14285715743695E-2</v>
       </c>
@@ -2300,7 +4313,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>2.1428571567717099E-2</v>
       </c>
@@ -2311,7 +4324,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>2.1428571561159501E-2</v>
       </c>
@@ -2322,7 +4335,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>2.1428571561159501E-2</v>
       </c>
@@ -2333,7 +4346,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>2.1428571558805499E-2</v>
       </c>
@@ -2344,7 +4357,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>2.1428571550014999E-2</v>
       </c>
@@ -2355,7 +4368,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>2.1428571549438301E-2</v>
       </c>
@@ -2366,7 +4379,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>2.1428571549438301E-2</v>
       </c>
@@ -2377,7 +4390,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>2.1428571549255E-2</v>
       </c>
@@ -2388,7 +4401,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>2.1428571546697601E-2</v>
       </c>
@@ -2399,7 +4412,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>2.14285715461572E-2</v>
       </c>
@@ -2410,7 +4423,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>2.1428571541912501E-2</v>
       </c>
@@ -2421,7 +4434,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>2.14285715404685E-2</v>
       </c>
@@ -2432,7 +4445,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>2.14285715404685E-2</v>
       </c>
@@ -2443,7 +4456,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>2.1428571540038601E-2</v>
       </c>
@@ -2454,7 +4467,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>2.14285715391653E-2</v>
       </c>
@@ -2465,7 +4478,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>2.14285715391653E-2</v>
       </c>
@@ -2476,7 +4489,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>2.1428571538708498E-2</v>
       </c>
@@ -2487,7 +4500,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>2.14285715387082E-2</v>
       </c>
@@ -2498,7 +4511,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>2.1428571537482101E-2</v>
       </c>
@@ -2509,7 +4522,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>2.14285715373989E-2</v>
       </c>
@@ -2520,7 +4533,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>2.1428571536320998E-2</v>
       </c>
@@ -2531,7 +4544,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>2.1428571534363099E-2</v>
       </c>
@@ -2542,7 +4555,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>2.142857153338E-2</v>
       </c>
@@ -2553,7 +4566,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>2.1428571528591601E-2</v>
       </c>
@@ -2564,7 +4577,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>2.1428571525400099E-2</v>
       </c>
@@ -2575,7 +4588,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>2.1428571525400099E-2</v>
       </c>
@@ -2586,7 +4599,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>2.1428571525400099E-2</v>
       </c>
@@ -2597,7 +4610,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>2.1428571525400099E-2</v>
       </c>
@@ -2608,7 +4621,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>2.1428571525400099E-2</v>
       </c>
@@ -2619,7 +4632,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>2.1428571525400099E-2</v>
       </c>
@@ -2630,7 +4643,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>2.1428571525400099E-2</v>
       </c>
@@ -2641,7 +4654,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>2.1428571525400099E-2</v>
       </c>
@@ -2652,7 +4665,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>2.1428571525400099E-2</v>
       </c>
@@ -2663,7 +4676,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>2.1428571525400099E-2</v>
       </c>
@@ -2674,7 +4687,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>2.1428571525400099E-2</v>
       </c>
@@ -2685,7 +4698,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>2.1428571524871601E-2</v>
       </c>
@@ -2696,7 +4709,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>2.1428571524871601E-2</v>
       </c>
@@ -2707,7 +4720,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
         <v>2.14285715248121E-2</v>
       </c>
@@ -2718,7 +4731,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
         <v>2.1428571523573799E-2</v>
       </c>
@@ -2729,7 +4742,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>2.1428571523573799E-2</v>
       </c>
@@ -2740,7 +4753,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
         <v>2.1428571523528801E-2</v>
       </c>
@@ -2751,7 +4764,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
         <v>2.1428571523528801E-2</v>
       </c>
@@ -2762,7 +4775,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="8">
         <v>2.14285715232156E-2</v>
       </c>
@@ -2773,7 +4786,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>2.1428571522467601E-2</v>
       </c>
@@ -2784,7 +4797,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="8">
         <v>2.14285715223934E-2</v>
       </c>
@@ -2795,7 +4808,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
         <v>2.14285715223025E-2</v>
       </c>
@@ -2806,7 +4819,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
         <v>2.1428571521838E-2</v>
       </c>
@@ -2817,7 +4830,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
         <v>2.1428571521837799E-2</v>
       </c>
@@ -2828,7 +4841,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="8">
         <v>2.14285715214153E-2</v>
       </c>
@@ -2839,7 +4852,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
         <v>2.1428571520259201E-2</v>
       </c>
@@ -2850,7 +4863,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
         <v>2.14285715173307E-2</v>
       </c>
@@ -2861,7 +4874,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
         <v>2.14285715173307E-2</v>
       </c>
@@ -2872,7 +4885,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="8">
         <v>2.1428571517123799E-2</v>
       </c>
@@ -2883,7 +4896,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
         <v>2.1428571515912102E-2</v>
       </c>
@@ -2894,7 +4907,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="8">
         <v>2.1428571515912102E-2</v>
       </c>
@@ -2905,7 +4918,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="8">
         <v>2.14285715156728E-2</v>
       </c>
@@ -2916,7 +4929,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="8">
         <v>2.1428571515672599E-2</v>
       </c>
@@ -2927,7 +4940,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="8">
         <v>2.1428571515587701E-2</v>
       </c>
@@ -2938,7 +4951,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="8">
         <v>2.14285715149223E-2</v>
       </c>
@@ -2949,7 +4962,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
         <v>2.14285715149223E-2</v>
       </c>
@@ -2960,7 +4973,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="8">
         <v>2.1428571514542E-2</v>
       </c>
@@ -2971,7 +4984,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="8">
         <v>2.1428571514542E-2</v>
       </c>
@@ -2982,7 +4995,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="8">
         <v>2.1428571514541798E-2</v>
       </c>
@@ -2993,7 +5006,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="8">
         <v>2.1428571514541798E-2</v>
       </c>
@@ -3004,7 +5017,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="8">
         <v>2.1428571514541798E-2</v>
       </c>
@@ -3015,7 +5028,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="8">
         <v>2.1428571514541798E-2</v>
       </c>
@@ -3026,7 +5039,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="8">
         <v>2.1428571514137199E-2</v>
       </c>
@@ -3037,7 +5050,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="8">
         <v>2.1428571513835901E-2</v>
       </c>
@@ -3048,7 +5061,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="11">
         <v>2.1428571513068501E-2</v>
       </c>
@@ -3059,7 +5072,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="8">
         <v>2.1428571512846301E-2</v>
       </c>
@@ -3070,7 +5083,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="8">
         <v>2.1428571512846301E-2</v>
       </c>
@@ -3081,7 +5094,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
         <v>2.1428571512846301E-2</v>
       </c>
@@ -3101,46 +5114,46 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48838E4F-5273-4A95-880B-901AB9A26B40}">
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D59" sqref="A59:D59"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C2" sqref="C1:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="20.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="20.5546875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="26" t="s">
         <v>323</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="12">
         <v>15.247913258143299</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="12">
         <v>4.5743739774430097</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>248</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -3156,14 +5169,14 @@
         <v>252</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="12">
         <v>15.247913258141001</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="12">
         <v>4.5743739774423</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>253</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -3179,14 +5192,14 @@
         <v>256</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
         <v>15.247913258141001</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="12">
         <v>4.5743739774423</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>257</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -3199,14 +5212,14 @@
         <v>258</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
         <v>15.2479132581407</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="12">
         <v>4.5743739774422298</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>259</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -3222,14 +5235,14 @@
         <v>261</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
         <v>15.2479132581407</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="12">
         <v>4.5743739774422298</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>262</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -3242,14 +5255,14 @@
         <v>258</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
         <v>15.2479132581407</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="12">
         <v>4.5743739774422298</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>259</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -3265,14 +5278,14 @@
         <v>256</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="12">
         <v>15.2479132581269</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="12">
         <v>4.5743739774380696</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>265</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -3285,14 +5298,14 @@
         <v>258</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="12">
         <v>15.2479132581214</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="12">
         <v>4.57437397743643</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>266</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -3305,14 +5318,14 @@
         <v>261</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="12">
         <v>15.2479132581214</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="12">
         <v>4.57437397743643</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>268</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -3328,14 +5341,14 @@
         <v>256</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
         <v>15.2479132533936</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="12">
         <v>4.5743739760180802</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>271</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -3351,14 +5364,14 @@
         <v>274</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
         <v>15.2479132533845</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="12">
         <v>4.5743739760153703</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>275</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -3374,14 +5387,14 @@
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
         <v>15.2479132533845</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="12">
         <v>4.5743739760153703</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>278</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -3397,14 +5410,14 @@
         <v>252</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
         <v>15.2479132533845</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="12">
         <v>4.5743739760153703</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="13" t="s">
         <v>248</v>
       </c>
       <c r="D14" s="6" t="s">
@@ -3420,14 +5433,14 @@
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
         <v>15.2479132533845</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="12">
         <v>4.5743739760153703</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="13" t="s">
         <v>257</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -3443,14 +5456,14 @@
         <v>250</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
         <v>15.2479132533784</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="12">
         <v>4.5743739760135398</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="13" t="s">
         <v>283</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -3466,14 +5479,14 @@
         <v>286</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="12">
         <v>15.2479132533779</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="12">
         <v>4.5743739760133897</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="13" t="s">
         <v>287</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -3489,14 +5502,14 @@
         <v>284</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="12">
         <v>15.2479132533736</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="12">
         <v>4.5743739760120903</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="13" t="s">
         <v>289</v>
       </c>
       <c r="D18" s="6" t="s">
@@ -3509,14 +5522,14 @@
         <v>290</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="13">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="12">
         <v>15.2479132533512</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="12">
         <v>4.5743739760053801</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="13" t="s">
         <v>291</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -3532,14 +5545,14 @@
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="12">
         <v>15.247913253349299</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="12">
         <v>4.5743739760048001</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="13" t="s">
         <v>283</v>
       </c>
       <c r="D20" s="6" t="s">
@@ -3555,14 +5568,14 @@
         <v>272</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="12">
         <v>15.247913253345899</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="12">
         <v>4.5743739760037698</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="13" t="s">
         <v>268</v>
       </c>
       <c r="D21" s="6" t="s">
@@ -3578,14 +5591,14 @@
         <v>296</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="13">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="12">
         <v>15.2479132533279</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="12">
         <v>4.5743739759983804</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="13" t="s">
         <v>297</v>
       </c>
       <c r="D22" s="6" t="s">
@@ -3601,14 +5614,14 @@
         <v>282</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="13">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="12">
         <v>15.247913253327001</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="12">
         <v>4.5743739759981104</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="13" t="s">
         <v>298</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -3624,14 +5637,14 @@
         <v>261</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="13">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="12">
         <v>15.2479131543418</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="12">
         <v>4.5743739463025497</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="13" t="s">
         <v>268</v>
       </c>
       <c r="D24" s="6" t="s">
@@ -3647,14 +5660,14 @@
         <v>251</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="13">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="12">
         <v>15.247913154331</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="12">
         <v>4.5743739462993096</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="13" t="s">
         <v>262</v>
       </c>
       <c r="D25" s="6" t="s">
@@ -3670,14 +5683,14 @@
         <v>256</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="13">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="12">
         <v>15.247913154326801</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="12">
         <v>4.5743739462980502</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="13" t="s">
         <v>300</v>
       </c>
       <c r="D26" s="6" t="s">
@@ -3690,14 +5703,14 @@
         <v>301</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="13">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="12">
         <v>15.247913154326801</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="12">
         <v>4.5743739462980502</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="13" t="s">
         <v>266</v>
       </c>
       <c r="D27" s="6" t="s">
@@ -3710,14 +5723,14 @@
         <v>258</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="13">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="12">
         <v>15.247913154324401</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28" s="12">
         <v>4.5743739462973396</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="13" t="s">
         <v>302</v>
       </c>
       <c r="D28" s="6" t="s">
@@ -3730,14 +5743,14 @@
         <v>256</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="13">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="12">
         <v>15.247913154323699</v>
       </c>
-      <c r="B29" s="13">
+      <c r="B29" s="12">
         <v>4.5743739462971202</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="13" t="s">
         <v>304</v>
       </c>
       <c r="D29" s="6" t="s">
@@ -3753,14 +5766,14 @@
         <v>250</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="13">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="12">
         <v>15.2479131543235</v>
       </c>
-      <c r="B30" s="13">
+      <c r="B30" s="12">
         <v>4.5743739462970598</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="13" t="s">
         <v>304</v>
       </c>
       <c r="D30" s="6" t="s">
@@ -3776,14 +5789,14 @@
         <v>250</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="13">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="12">
         <v>15.2479131543235</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="12">
         <v>4.5743739462970598</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="13" t="s">
         <v>259</v>
       </c>
       <c r="D31" s="6" t="s">
@@ -3799,14 +5812,14 @@
         <v>263</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="13">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="12">
         <v>15.247913154320401</v>
       </c>
-      <c r="B32" s="13">
+      <c r="B32" s="12">
         <v>4.5743739462961397</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="13" t="s">
         <v>268</v>
       </c>
       <c r="D32" s="6" t="s">
@@ -3822,14 +5835,14 @@
         <v>306</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="13">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="12">
         <v>15.2479131543188</v>
       </c>
-      <c r="B33" s="13">
+      <c r="B33" s="12">
         <v>4.5743739462956396</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="13" t="s">
         <v>262</v>
       </c>
       <c r="D33" s="6" t="s">
@@ -3845,14 +5858,14 @@
         <v>261</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="13">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="12">
         <v>15.247913154315899</v>
       </c>
-      <c r="B34" s="13">
+      <c r="B34" s="12">
         <v>4.5743739462947799</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="13" t="s">
         <v>308</v>
       </c>
       <c r="D34" s="6" t="s">
@@ -3868,14 +5881,14 @@
         <v>251</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="13">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="12">
         <v>15.2479131543151</v>
       </c>
-      <c r="B35" s="13">
+      <c r="B35" s="12">
         <v>4.5743739462945401</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="13" t="s">
         <v>259</v>
       </c>
       <c r="D35" s="6" t="s">
@@ -3891,14 +5904,14 @@
         <v>250</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="13">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="12">
         <v>15.2479131543138</v>
       </c>
-      <c r="B36" s="13">
+      <c r="B36" s="12">
         <v>4.5743739462941502</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="13" t="s">
         <v>291</v>
       </c>
       <c r="D36" s="6" t="s">
@@ -3914,14 +5927,14 @@
         <v>299</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="13">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="12">
         <v>15.2479131543137</v>
       </c>
-      <c r="B37" s="13">
+      <c r="B37" s="12">
         <v>4.57437394629412</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="13" t="s">
         <v>302</v>
       </c>
       <c r="D37" s="6" t="s">
@@ -3934,14 +5947,14 @@
         <v>258</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="13">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="12">
         <v>15.2479131543137</v>
       </c>
-      <c r="B38" s="13">
+      <c r="B38" s="12">
         <v>4.57437394629412</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="13" t="s">
         <v>309</v>
       </c>
       <c r="D38" s="6" t="s">
@@ -3954,14 +5967,14 @@
         <v>305</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="13">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="12">
         <v>15.2479131543093</v>
       </c>
-      <c r="B39" s="13">
+      <c r="B39" s="12">
         <v>4.5743739462928099</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="13" t="s">
         <v>266</v>
       </c>
       <c r="D39" s="6" t="s">
@@ -3974,14 +5987,14 @@
         <v>256</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="13">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="12">
         <v>15.247913154305699</v>
       </c>
-      <c r="B40" s="13">
+      <c r="B40" s="12">
         <v>4.5743739462917299</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="13" t="s">
         <v>310</v>
       </c>
       <c r="D40" s="6" t="s">
@@ -3997,14 +6010,14 @@
         <v>252</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="13">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="12">
         <v>15.247913154305699</v>
       </c>
-      <c r="B41" s="13">
+      <c r="B41" s="12">
         <v>4.5743739462917299</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="13" t="s">
         <v>311</v>
       </c>
       <c r="D41" s="6" t="s">
@@ -4014,14 +6027,14 @@
         <v>312</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="13">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="12">
         <v>15.247913154305101</v>
       </c>
-      <c r="B42" s="13">
+      <c r="B42" s="12">
         <v>4.5743739462915398</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="13" t="s">
         <v>308</v>
       </c>
       <c r="D42" s="6" t="s">
@@ -4034,14 +6047,14 @@
         <v>286</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="13">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="12">
         <v>15.247913154304699</v>
       </c>
-      <c r="B43" s="13">
+      <c r="B43" s="12">
         <v>4.5743739462914297</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="13" t="s">
         <v>262</v>
       </c>
       <c r="D43" s="6" t="s">
@@ -4057,14 +6070,14 @@
         <v>256</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="13">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="12">
         <v>15.247913154304699</v>
       </c>
-      <c r="B44" s="13">
+      <c r="B44" s="12">
         <v>4.5743739462914297</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="13" t="s">
         <v>259</v>
       </c>
       <c r="D44" s="6" t="s">
@@ -4080,14 +6093,14 @@
         <v>256</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="13">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="12">
         <v>15.247913154304699</v>
       </c>
-      <c r="B45" s="13">
+      <c r="B45" s="12">
         <v>4.5743739462914297</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="13" t="s">
         <v>313</v>
       </c>
       <c r="D45" s="6" t="s">
@@ -4100,14 +6113,14 @@
         <v>277</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="13">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="12">
         <v>15.247913154304699</v>
       </c>
-      <c r="B46" s="13">
+      <c r="B46" s="12">
         <v>4.5743739462914297</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="13" t="s">
         <v>283</v>
       </c>
       <c r="D46" s="6" t="s">
@@ -4123,14 +6136,14 @@
         <v>252</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="13">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="12">
         <v>15.2479131543038</v>
       </c>
-      <c r="B47" s="13">
+      <c r="B47" s="12">
         <v>4.5743739462911597</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C47" s="13" t="s">
         <v>283</v>
       </c>
       <c r="D47" s="6" t="s">
@@ -4146,14 +6159,14 @@
         <v>256</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="13">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="12">
         <v>15.247913154303699</v>
       </c>
-      <c r="B48" s="13">
+      <c r="B48" s="12">
         <v>4.5743739462911304</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="13" t="s">
         <v>283</v>
       </c>
       <c r="D48" s="6" t="s">
@@ -4169,14 +6182,14 @@
         <v>250</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="13">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="12">
         <v>15.247913154303699</v>
       </c>
-      <c r="B49" s="13">
+      <c r="B49" s="12">
         <v>4.5743739462911099</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C49" s="13" t="s">
         <v>253</v>
       </c>
       <c r="D49" s="6" t="s">
@@ -4192,14 +6205,14 @@
         <v>250</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="13">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="12">
         <v>15.247913154303401</v>
       </c>
-      <c r="B50" s="13">
+      <c r="B50" s="12">
         <v>4.57437394629103</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C50" s="13" t="s">
         <v>253</v>
       </c>
       <c r="D50" s="6" t="s">
@@ -4215,14 +6228,14 @@
         <v>256</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="13">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="12">
         <v>15.2479131543015</v>
       </c>
-      <c r="B51" s="13">
+      <c r="B51" s="12">
         <v>4.57437394629045</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C51" s="13" t="s">
         <v>265</v>
       </c>
       <c r="D51" s="6" t="s">
@@ -4235,14 +6248,14 @@
         <v>252</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="13">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="12">
         <v>15.2479131543009</v>
       </c>
-      <c r="B52" s="13">
+      <c r="B52" s="12">
         <v>4.5743739462902697</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C52" s="13" t="s">
         <v>278</v>
       </c>
       <c r="D52" s="6" t="s">
@@ -4258,14 +6271,14 @@
         <v>252</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="13">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="12">
         <v>15.2479131543009</v>
       </c>
-      <c r="B53" s="13">
+      <c r="B53" s="12">
         <v>4.5743739462902697</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C53" s="13" t="s">
         <v>268</v>
       </c>
       <c r="D53" s="6" t="s">
@@ -4281,14 +6294,14 @@
         <v>250</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="13">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="12">
         <v>15.2479131542992</v>
       </c>
-      <c r="B54" s="13">
+      <c r="B54" s="12">
         <v>4.5743739462897697</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C54" s="13" t="s">
         <v>283</v>
       </c>
       <c r="D54" s="6" t="s">
@@ -4304,14 +6317,14 @@
         <v>250</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="13">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="12">
         <v>15.247913154298899</v>
       </c>
-      <c r="B55" s="13">
+      <c r="B55" s="12">
         <v>4.5743739462896702</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C55" s="13" t="s">
         <v>278</v>
       </c>
       <c r="D55" s="6" t="s">
@@ -4327,14 +6340,14 @@
         <v>306</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="13">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="12">
         <v>15.247913154298701</v>
       </c>
-      <c r="B56" s="13">
+      <c r="B56" s="12">
         <v>4.5743739462896302</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C56" s="13" t="s">
         <v>283</v>
       </c>
       <c r="D56" s="6" t="s">
@@ -4344,14 +6357,14 @@
         <v>277</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="13">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="12">
         <v>15.247913154298701</v>
       </c>
-      <c r="B57" s="13">
+      <c r="B57" s="12">
         <v>4.5743739462896302</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C57" s="13" t="s">
         <v>259</v>
       </c>
       <c r="D57" s="6" t="s">
@@ -4367,14 +6380,14 @@
         <v>317</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="13">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="12">
         <v>15.247913154298701</v>
       </c>
-      <c r="B58" s="13">
+      <c r="B58" s="12">
         <v>4.5743739462896302</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C58" s="13" t="s">
         <v>313</v>
       </c>
       <c r="D58" s="6" t="s">
@@ -4384,28 +6397,28 @@
         <v>277</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="15">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="14">
         <v>15.247913154297301</v>
       </c>
-      <c r="B59" s="15">
+      <c r="B59" s="14">
         <v>4.5743739462892101</v>
       </c>
-      <c r="C59" s="16" t="s">
+      <c r="C59" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="D59" s="17" t="s">
+      <c r="D59" s="16" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="13">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="12">
         <v>15.2479131542967</v>
       </c>
-      <c r="B60" s="13">
+      <c r="B60" s="12">
         <v>4.5743739462890103</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C60" s="13" t="s">
         <v>268</v>
       </c>
       <c r="D60" s="6" t="s">
@@ -4418,14 +6431,14 @@
         <v>299</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="13">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="12">
         <v>15.2479131542967</v>
       </c>
-      <c r="B61" s="13">
+      <c r="B61" s="12">
         <v>4.5743739462890103</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="C61" s="13" t="s">
         <v>257</v>
       </c>
       <c r="D61" s="6" t="s">
@@ -4441,14 +6454,14 @@
         <v>261</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="13">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="12">
         <v>15.2479131542967</v>
       </c>
-      <c r="B62" s="13">
+      <c r="B62" s="12">
         <v>4.5743739462890103</v>
       </c>
-      <c r="C62" s="14" t="s">
+      <c r="C62" s="13" t="s">
         <v>262</v>
       </c>
       <c r="D62" s="6" t="s">
@@ -4458,14 +6471,14 @@
         <v>256</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="13">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="12">
         <v>15.2479131542967</v>
       </c>
-      <c r="B63" s="13">
+      <c r="B63" s="12">
         <v>4.5743739462890103</v>
       </c>
-      <c r="C63" s="14" t="s">
+      <c r="C63" s="13" t="s">
         <v>248</v>
       </c>
       <c r="D63" s="6" t="s">
@@ -4481,14 +6494,14 @@
         <v>250</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="13">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="12">
         <v>15.2479131542967</v>
       </c>
-      <c r="B64" s="13">
+      <c r="B64" s="12">
         <v>4.5743739462890103</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="C64" s="13" t="s">
         <v>283</v>
       </c>
       <c r="D64" s="6" t="s">
@@ -4501,14 +6514,14 @@
         <v>256</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="13">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="12">
         <v>15.2479131542967</v>
       </c>
-      <c r="B65" s="13">
+      <c r="B65" s="12">
         <v>4.5743739462890103</v>
       </c>
-      <c r="C65" s="14" t="s">
+      <c r="C65" s="13" t="s">
         <v>268</v>
       </c>
       <c r="D65" s="6" t="s">
@@ -4524,14 +6537,14 @@
         <v>250</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="13">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="12">
         <v>15.2479131542967</v>
       </c>
-      <c r="B66" s="13">
+      <c r="B66" s="12">
         <v>4.5743739462890103</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C66" s="13" t="s">
         <v>283</v>
       </c>
       <c r="D66" s="6" t="s">
@@ -4544,14 +6557,14 @@
         <v>301</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="13">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="12">
         <v>15.2479131542967</v>
       </c>
-      <c r="B67" s="13">
+      <c r="B67" s="12">
         <v>4.5743739462890103</v>
       </c>
-      <c r="C67" s="14" t="s">
+      <c r="C67" s="13" t="s">
         <v>259</v>
       </c>
       <c r="D67" s="6" t="s">
@@ -4567,14 +6580,14 @@
         <v>258</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="13">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="12">
         <v>15.2479131542967</v>
       </c>
-      <c r="B68" s="13">
+      <c r="B68" s="12">
         <v>4.5743739462890103</v>
       </c>
-      <c r="C68" s="14" t="s">
+      <c r="C68" s="13" t="s">
         <v>257</v>
       </c>
       <c r="D68" s="6" t="s">
@@ -4590,14 +6603,14 @@
         <v>250</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="13">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="12">
         <v>15.247913154296301</v>
       </c>
-      <c r="B69" s="13">
+      <c r="B69" s="12">
         <v>4.5743739462889099</v>
       </c>
-      <c r="C69" s="14" t="s">
+      <c r="C69" s="13" t="s">
         <v>259</v>
       </c>
       <c r="D69" s="6" t="s">
@@ -4613,14 +6626,14 @@
         <v>256</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="13">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="12">
         <v>15.247913154296199</v>
       </c>
-      <c r="B70" s="13">
+      <c r="B70" s="12">
         <v>4.5743739462888602</v>
       </c>
-      <c r="C70" s="14" t="s">
+      <c r="C70" s="13" t="s">
         <v>257</v>
       </c>
       <c r="D70" s="6" t="s">
@@ -4636,14 +6649,14 @@
         <v>250</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="13">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="12">
         <v>15.2479131542951</v>
       </c>
-      <c r="B71" s="13">
+      <c r="B71" s="12">
         <v>4.5743739462885502</v>
       </c>
-      <c r="C71" s="14" t="s">
+      <c r="C71" s="13" t="s">
         <v>265</v>
       </c>
       <c r="D71" s="6" t="s">
@@ -4656,14 +6669,14 @@
         <v>277</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="13">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="12">
         <v>15.247913154294899</v>
       </c>
-      <c r="B72" s="13">
+      <c r="B72" s="12">
         <v>4.5743739462884898</v>
       </c>
-      <c r="C72" s="14" t="s">
+      <c r="C72" s="13" t="s">
         <v>289</v>
       </c>
       <c r="D72" s="6" t="s">
@@ -4676,14 +6689,14 @@
         <v>258</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="13">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="12">
         <v>15.2479131542941</v>
       </c>
-      <c r="B73" s="13">
+      <c r="B73" s="12">
         <v>4.5743739462882402</v>
       </c>
-      <c r="C73" s="14" t="s">
+      <c r="C73" s="13" t="s">
         <v>283</v>
       </c>
       <c r="D73" s="6" t="s">
@@ -4699,14 +6712,14 @@
         <v>250</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="13">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="12">
         <v>15.2479131542934</v>
       </c>
-      <c r="B74" s="13">
+      <c r="B74" s="12">
         <v>4.57437394628802</v>
       </c>
-      <c r="C74" s="14" t="s">
+      <c r="C74" s="13" t="s">
         <v>302</v>
       </c>
       <c r="D74" s="6" t="s">
@@ -4719,14 +6732,14 @@
         <v>261</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="13">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="12">
         <v>15.247913154292601</v>
       </c>
-      <c r="B75" s="13">
+      <c r="B75" s="12">
         <v>4.5743739462877899</v>
       </c>
-      <c r="C75" s="14" t="s">
+      <c r="C75" s="13" t="s">
         <v>268</v>
       </c>
       <c r="D75" s="6" t="s">
@@ -4736,14 +6749,14 @@
         <v>305</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="13">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="12">
         <v>15.2479131542914</v>
       </c>
-      <c r="B76" s="13">
+      <c r="B76" s="12">
         <v>4.5743739462874302</v>
       </c>
-      <c r="C76" s="14" t="s">
+      <c r="C76" s="13" t="s">
         <v>268</v>
       </c>
       <c r="D76" s="6" t="s">
@@ -4759,14 +6772,14 @@
         <v>256</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="13">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="12">
         <v>15.2479131542914</v>
       </c>
-      <c r="B77" s="13">
+      <c r="B77" s="12">
         <v>4.5743739462874302</v>
       </c>
-      <c r="C77" s="14" t="s">
+      <c r="C77" s="13" t="s">
         <v>302</v>
       </c>
       <c r="D77" s="6" t="s">
@@ -4776,14 +6789,14 @@
         <v>250</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="13">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="12">
         <v>15.2479131542907</v>
       </c>
-      <c r="B78" s="13">
+      <c r="B78" s="12">
         <v>4.5743739462872099</v>
       </c>
-      <c r="C78" s="14" t="s">
+      <c r="C78" s="13" t="s">
         <v>291</v>
       </c>
       <c r="D78" s="6" t="s">
@@ -4799,14 +6812,14 @@
         <v>250</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="13">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="12">
         <v>15.2479131542907</v>
       </c>
-      <c r="B79" s="13">
+      <c r="B79" s="12">
         <v>4.5743739462872099</v>
       </c>
-      <c r="C79" s="14" t="s">
+      <c r="C79" s="13" t="s">
         <v>309</v>
       </c>
       <c r="D79" s="6" t="s">
@@ -4819,14 +6832,14 @@
         <v>256</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="13">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="12">
         <v>15.2479131542904</v>
       </c>
-      <c r="B80" s="13">
+      <c r="B80" s="12">
         <v>4.5743739462871398</v>
       </c>
-      <c r="C80" s="14" t="s">
+      <c r="C80" s="13" t="s">
         <v>289</v>
       </c>
       <c r="D80" s="6" t="s">
@@ -4839,14 +6852,14 @@
         <v>320</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="13">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="12">
         <v>15.247913154289099</v>
       </c>
-      <c r="B81" s="13">
+      <c r="B81" s="12">
         <v>4.5743739462867303</v>
       </c>
-      <c r="C81" s="14" t="s">
+      <c r="C81" s="13" t="s">
         <v>265</v>
       </c>
       <c r="D81" s="6" t="s">
@@ -4859,14 +6872,14 @@
         <v>261</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="13">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="12">
         <v>15.247913154288501</v>
       </c>
-      <c r="B82" s="13">
+      <c r="B82" s="12">
         <v>4.5743739462865598</v>
       </c>
-      <c r="C82" s="14" t="s">
+      <c r="C82" s="13" t="s">
         <v>266</v>
       </c>
       <c r="D82" s="6" t="s">
@@ -4879,14 +6892,14 @@
         <v>258</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="13">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="12">
         <v>15.247913154288501</v>
       </c>
-      <c r="B83" s="13">
+      <c r="B83" s="12">
         <v>4.5743739462865598</v>
       </c>
-      <c r="C83" s="14" t="s">
+      <c r="C83" s="13" t="s">
         <v>283</v>
       </c>
       <c r="D83" s="6" t="s">
@@ -4902,14 +6915,14 @@
         <v>251</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="13">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="12">
         <v>15.2479131542869</v>
       </c>
-      <c r="B84" s="13">
+      <c r="B84" s="12">
         <v>4.5743739462860802</v>
       </c>
-      <c r="C84" s="14" t="s">
+      <c r="C84" s="13" t="s">
         <v>289</v>
       </c>
       <c r="D84" s="6" t="s">
@@ -4919,14 +6932,14 @@
         <v>286</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="13">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="12">
         <v>15.247913154286699</v>
       </c>
-      <c r="B85" s="13">
+      <c r="B85" s="12">
         <v>4.57437394628601</v>
       </c>
-      <c r="C85" s="14" t="s">
+      <c r="C85" s="13" t="s">
         <v>321</v>
       </c>
       <c r="D85" s="6" t="s">
@@ -4942,14 +6955,14 @@
         <v>290</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="13">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="12">
         <v>15.247913154286399</v>
       </c>
-      <c r="B86" s="13">
+      <c r="B86" s="12">
         <v>4.5743739462859399</v>
       </c>
-      <c r="C86" s="14" t="s">
+      <c r="C86" s="13" t="s">
         <v>248</v>
       </c>
       <c r="D86" s="6" t="s">
@@ -4962,14 +6975,14 @@
         <v>258</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="13">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="12">
         <v>15.247913154286399</v>
       </c>
-      <c r="B87" s="13">
+      <c r="B87" s="12">
         <v>4.5743739462859399</v>
       </c>
-      <c r="C87" s="14" t="s">
+      <c r="C87" s="13" t="s">
         <v>262</v>
       </c>
       <c r="D87" s="6" t="s">
@@ -4985,14 +6998,14 @@
         <v>263</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="13">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="12">
         <v>15.2479131542853</v>
       </c>
-      <c r="B88" s="13">
+      <c r="B88" s="12">
         <v>4.5743739462855997</v>
       </c>
-      <c r="C88" s="14" t="s">
+      <c r="C88" s="13" t="s">
         <v>297</v>
       </c>
       <c r="D88" s="6" t="s">
@@ -5020,1967 +7033,42 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CB4A4CA-A7DE-4B21-B426-D69CFF982BF9}">
-  <dimension ref="A1:G92"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C21" sqref="A20:C21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="8.5703125" style="6" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="24">
-        <v>2.45120000163296E-2</v>
-      </c>
-      <c r="B2" s="24">
-        <v>7.3536000048988999E-3</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="24">
-        <v>2.4512000016557001E-2</v>
-      </c>
-      <c r="B3" s="24">
-        <v>7.3536000049671197E-3</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="24">
-        <v>2.4512000017807602E-2</v>
-      </c>
-      <c r="B4" s="24">
-        <v>7.3536000053422796E-3</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
-        <v>2.45120000182623E-2</v>
-      </c>
-      <c r="B5" s="24">
-        <v>7.3536000054787096E-3</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="24">
-        <v>2.45120000182623E-2</v>
-      </c>
-      <c r="B6" s="24">
-        <v>7.3536000054787096E-3</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
-        <v>2.4512000018489698E-2</v>
-      </c>
-      <c r="B7" s="24">
-        <v>7.3536000055469198E-3</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="24">
-        <v>2.4512000019285499E-2</v>
-      </c>
-      <c r="B8" s="24">
-        <v>7.3536000057856602E-3</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
-        <v>2.45120000193992E-2</v>
-      </c>
-      <c r="B9" s="24">
-        <v>7.3536000058197701E-3</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="24">
-        <v>2.45120000193992E-2</v>
-      </c>
-      <c r="B10" s="24">
-        <v>7.3536000058197701E-3</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="24">
-        <v>2.45120000193992E-2</v>
-      </c>
-      <c r="B11" s="24">
-        <v>7.3536000058197701E-3</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="24">
-        <v>2.45120000193992E-2</v>
-      </c>
-      <c r="B12" s="24">
-        <v>7.3536000058197701E-3</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="24">
-        <v>2.45120000206497E-2</v>
-      </c>
-      <c r="B13" s="24">
-        <v>7.3536000061949301E-3</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="24">
-        <v>2.45120000206497E-2</v>
-      </c>
-      <c r="B14" s="24">
-        <v>7.3536000061949301E-3</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="24">
-        <v>2.45120000206497E-2</v>
-      </c>
-      <c r="B15" s="24">
-        <v>7.3536000061949301E-3</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="24">
-        <v>2.45120000212182E-2</v>
-      </c>
-      <c r="B16" s="24">
-        <v>7.3536000063654603E-3</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="24">
-        <v>2.4512000021445601E-2</v>
-      </c>
-      <c r="B17" s="24">
-        <v>7.35360000643368E-3</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="24">
-        <v>2.4512000021445601E-2</v>
-      </c>
-      <c r="B18" s="24">
-        <v>7.35360000643368E-3</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="24">
-        <v>2.4512000021445601E-2</v>
-      </c>
-      <c r="B19" s="24">
-        <v>7.35360000643368E-3</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="24">
-        <v>2.4512000021786599E-2</v>
-      </c>
-      <c r="B20" s="24">
-        <v>7.3536000065359897E-3</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="25">
-        <v>2.4512000022923499E-2</v>
-      </c>
-      <c r="B21" s="25">
-        <v>7.3536000068770502E-3</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="24">
-        <v>2.4512000023491898E-2</v>
-      </c>
-      <c r="B22" s="24">
-        <v>7.3536000070475796E-3</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="24">
-        <v>2.4512000023605599E-2</v>
-      </c>
-      <c r="B23" s="24">
-        <v>7.3536000070816903E-3</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="24">
-        <v>2.45120000273573E-2</v>
-      </c>
-      <c r="B24" s="24">
-        <v>7.3536000082071902E-3</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="24">
-        <v>2.4512000028266801E-2</v>
-      </c>
-      <c r="B25" s="24">
-        <v>7.3536000084800397E-3</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="24">
-        <v>2.4512000029631002E-2</v>
-      </c>
-      <c r="B26" s="24">
-        <v>7.3536000088893104E-3</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="24">
-        <v>2.4512000029631002E-2</v>
-      </c>
-      <c r="B27" s="24">
-        <v>7.3536000088893104E-3</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="24">
-        <v>2.4512000029631002E-2</v>
-      </c>
-      <c r="B28" s="24">
-        <v>7.3536000088893104E-3</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="24">
-        <v>2.4512000029631002E-2</v>
-      </c>
-      <c r="B29" s="24">
-        <v>7.3536000088893104E-3</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="24">
-        <v>2.4512000029631002E-2</v>
-      </c>
-      <c r="B30" s="24">
-        <v>7.3536000088893104E-3</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="24">
-        <v>2.4512000031450001E-2</v>
-      </c>
-      <c r="B31" s="24">
-        <v>7.3536000094350101E-3</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="24">
-        <v>2.4512000033951101E-2</v>
-      </c>
-      <c r="B32" s="24">
-        <v>7.3536000101853396E-3</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="24">
-        <v>2.4512000033951101E-2</v>
-      </c>
-      <c r="B33" s="24">
-        <v>7.3536000101853396E-3</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="24">
-        <v>2.4512000033951101E-2</v>
-      </c>
-      <c r="B34" s="24">
-        <v>7.3536000101853396E-3</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="24">
-        <v>2.4512000033951101E-2</v>
-      </c>
-      <c r="B35" s="24">
-        <v>7.3536000101853396E-3</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="24">
-        <v>2.4512000033951101E-2</v>
-      </c>
-      <c r="B36" s="24">
-        <v>7.3536000101853396E-3</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="24">
-        <v>2.4512000033951101E-2</v>
-      </c>
-      <c r="B37" s="24">
-        <v>7.3536000101853396E-3</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="24">
-        <v>2.4512000033951101E-2</v>
-      </c>
-      <c r="B38" s="24">
-        <v>7.3536000101853396E-3</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="24">
-        <v>2.4512000033951101E-2</v>
-      </c>
-      <c r="B39" s="24">
-        <v>7.3536000101853396E-3</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="24">
-        <v>2.4512000035770101E-2</v>
-      </c>
-      <c r="B40" s="24">
-        <v>7.3536000107310403E-3</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="24">
-        <v>2.4512000036338501E-2</v>
-      </c>
-      <c r="B41" s="24">
-        <v>7.3536000109015696E-3</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="24">
-        <v>2.4512000037589101E-2</v>
-      </c>
-      <c r="B42" s="24">
-        <v>7.3536000112767296E-3</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="24">
-        <v>2.4512000037816499E-2</v>
-      </c>
-      <c r="B43" s="24">
-        <v>7.3536000113449502E-3</v>
-      </c>
-      <c r="C43" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="24">
-        <v>2.45120000380438E-2</v>
-      </c>
-      <c r="B44" s="24">
-        <v>7.3536000114131604E-3</v>
-      </c>
-      <c r="C44" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="24">
-        <v>2.4512000038726001E-2</v>
-      </c>
-      <c r="B45" s="24">
-        <v>7.3536000116177997E-3</v>
-      </c>
-      <c r="C45" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="24">
-        <v>2.4512000038726001E-2</v>
-      </c>
-      <c r="B46" s="24">
-        <v>7.3536000116177997E-3</v>
-      </c>
-      <c r="C46" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="24">
-        <v>2.4512000038726001E-2</v>
-      </c>
-      <c r="B47" s="24">
-        <v>7.3536000116177997E-3</v>
-      </c>
-      <c r="C47" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="24">
-        <v>2.4512000038726001E-2</v>
-      </c>
-      <c r="B48" s="24">
-        <v>7.3536000116177997E-3</v>
-      </c>
-      <c r="C48" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="24">
-        <v>2.4512000038839601E-2</v>
-      </c>
-      <c r="B49" s="24">
-        <v>7.3536000116519E-3</v>
-      </c>
-      <c r="C49" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="24">
-        <v>2.45120000436145E-2</v>
-      </c>
-      <c r="B50" s="24">
-        <v>7.3536000130843601E-3</v>
-      </c>
-      <c r="C50" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="24">
-        <v>2.4512000043728201E-2</v>
-      </c>
-      <c r="B51" s="24">
-        <v>7.3536000131184604E-3</v>
-      </c>
-      <c r="C51" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="24">
-        <v>2.4512000043728201E-2</v>
-      </c>
-      <c r="B52" s="24">
-        <v>7.3536000131184604E-3</v>
-      </c>
-      <c r="C52" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="24">
-        <v>2.4512000049526202E-2</v>
-      </c>
-      <c r="B53" s="24">
-        <v>7.3536000148578702E-3</v>
-      </c>
-      <c r="C53" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="24">
-        <v>2.45120000498673E-2</v>
-      </c>
-      <c r="B54" s="24">
-        <v>7.3536000149601903E-3</v>
-      </c>
-      <c r="C54" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="24">
-        <v>2.4512000050094601E-2</v>
-      </c>
-      <c r="B55" s="24">
-        <v>7.3536000150283996E-3</v>
-      </c>
-      <c r="C55" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="24">
-        <v>2.4512000050094601E-2</v>
-      </c>
-      <c r="B56" s="24">
-        <v>7.3536000150283996E-3</v>
-      </c>
-      <c r="C56" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="24">
-        <v>2.4512000056233701E-2</v>
-      </c>
-      <c r="B57" s="24">
-        <v>7.3536000168701304E-3</v>
-      </c>
-      <c r="C57" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="24">
-        <v>2.45120000585075E-2</v>
-      </c>
-      <c r="B58" s="24">
-        <v>7.3536000175522497E-3</v>
-      </c>
-      <c r="C58" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="24">
-        <v>2.4512000059530598E-2</v>
-      </c>
-      <c r="B59" s="24">
-        <v>7.3536000178592003E-3</v>
-      </c>
-      <c r="C59" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="24">
-        <v>2.4512000061804401E-2</v>
-      </c>
-      <c r="B60" s="24">
-        <v>7.3536000185413196E-3</v>
-      </c>
-      <c r="C60" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="24">
-        <v>2.4512000062600198E-2</v>
-      </c>
-      <c r="B61" s="24">
-        <v>7.3536000187800696E-3</v>
-      </c>
-      <c r="C61" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="24">
-        <v>2.4512000062600198E-2</v>
-      </c>
-      <c r="B62" s="24">
-        <v>7.3536000187800696E-3</v>
-      </c>
-      <c r="C62" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="24">
-        <v>2.45120000660108E-2</v>
-      </c>
-      <c r="B63" s="24">
-        <v>7.3536000198032503E-3</v>
-      </c>
-      <c r="C63" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="24">
-        <v>2.45120000660108E-2</v>
-      </c>
-      <c r="B64" s="24">
-        <v>7.3536000198032503E-3</v>
-      </c>
-      <c r="C64" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="24">
-        <v>2.45120000660108E-2</v>
-      </c>
-      <c r="B65" s="24">
-        <v>7.3536000198032503E-3</v>
-      </c>
-      <c r="C65" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="24">
-        <v>2.4512000066806601E-2</v>
-      </c>
-      <c r="B66" s="24">
-        <v>7.3536000200419898E-3</v>
-      </c>
-      <c r="C66" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="24">
-        <v>2.4512000066806601E-2</v>
-      </c>
-      <c r="B67" s="24">
-        <v>7.3536000200419898E-3</v>
-      </c>
-      <c r="C67" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="24">
-        <v>2.4512000072490901E-2</v>
-      </c>
-      <c r="B68" s="24">
-        <v>7.3536000217472898E-3</v>
-      </c>
-      <c r="C68" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="24">
-        <v>2.4512000072945701E-2</v>
-      </c>
-      <c r="B69" s="24">
-        <v>7.3536000218837197E-3</v>
-      </c>
-      <c r="C69" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="24">
-        <v>2.45120000771521E-2</v>
-      </c>
-      <c r="B70" s="24">
-        <v>7.35360002314564E-3</v>
-      </c>
-      <c r="C70" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="24">
-        <v>2.45120000814722E-2</v>
-      </c>
-      <c r="B71" s="24">
-        <v>7.3536000244416701E-3</v>
-      </c>
-      <c r="C71" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="24">
-        <v>2.4512000081926999E-2</v>
-      </c>
-      <c r="B72" s="24">
-        <v>7.3536000245780896E-3</v>
-      </c>
-      <c r="C72" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="24">
-        <v>2.4512000081926999E-2</v>
-      </c>
-      <c r="B73" s="24">
-        <v>7.3536000245780896E-3</v>
-      </c>
-      <c r="C73" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="24">
-        <v>2.4512000081926999E-2</v>
-      </c>
-      <c r="B74" s="24">
-        <v>7.3536000245780896E-3</v>
-      </c>
-      <c r="C74" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="24">
-        <v>2.4512000081926999E-2</v>
-      </c>
-      <c r="B75" s="24">
-        <v>7.3536000245780896E-3</v>
-      </c>
-      <c r="C75" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="24">
-        <v>2.4512000081926999E-2</v>
-      </c>
-      <c r="B76" s="24">
-        <v>7.3536000245780896E-3</v>
-      </c>
-      <c r="C76" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="24">
-        <v>2.4512000081926999E-2</v>
-      </c>
-      <c r="B77" s="24">
-        <v>7.3536000245780896E-3</v>
-      </c>
-      <c r="C77" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="F77" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="24">
-        <v>2.4512000081926999E-2</v>
-      </c>
-      <c r="B78" s="24">
-        <v>7.3536000245780896E-3</v>
-      </c>
-      <c r="C78" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G78" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="24">
-        <v>2.4512000082950101E-2</v>
-      </c>
-      <c r="B79" s="24">
-        <v>7.3536000248850498E-3</v>
-      </c>
-      <c r="C79" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="F79" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="24">
-        <v>2.4512000086815498E-2</v>
-      </c>
-      <c r="B80" s="24">
-        <v>7.35360002604465E-3</v>
-      </c>
-      <c r="C80" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F80" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="24">
-        <v>2.45120000909082E-2</v>
-      </c>
-      <c r="B81" s="24">
-        <v>7.3536000272724699E-3</v>
-      </c>
-      <c r="C81" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="24">
-        <v>2.45120000909082E-2</v>
-      </c>
-      <c r="B82" s="24">
-        <v>7.3536000272724699E-3</v>
-      </c>
-      <c r="C82" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="F82" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="G82" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="24">
-        <v>2.45120000909082E-2</v>
-      </c>
-      <c r="B83" s="24">
-        <v>7.3536000272724699E-3</v>
-      </c>
-      <c r="C83" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="24">
-        <v>2.45120000963652E-2</v>
-      </c>
-      <c r="B84" s="24">
-        <v>7.3536000289095597E-3</v>
-      </c>
-      <c r="C84" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F84" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="24">
-        <v>2.4512000103527401E-2</v>
-      </c>
-      <c r="B85" s="24">
-        <v>7.3536000310582402E-3</v>
-      </c>
-      <c r="C85" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="F85" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="G85" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="24">
-        <v>2.45120001088707E-2</v>
-      </c>
-      <c r="B86" s="24">
-        <v>7.3536000326612297E-3</v>
-      </c>
-      <c r="C86" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="F86" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="24">
-        <v>2.4512000137178799E-2</v>
-      </c>
-      <c r="B87" s="24">
-        <v>7.3536000411536396E-3</v>
-      </c>
-      <c r="C87" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="24">
-        <v>2.4512000144454701E-2</v>
-      </c>
-      <c r="B88" s="24">
-        <v>7.3536000433364196E-3</v>
-      </c>
-      <c r="C88" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="F88" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G88" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="24">
-        <v>2.4512000157756099E-2</v>
-      </c>
-      <c r="B89" s="24">
-        <v>7.35360004732683E-3</v>
-      </c>
-      <c r="C89" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F89" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="24">
-        <v>2.45120001897021E-2</v>
-      </c>
-      <c r="B90" s="24">
-        <v>7.3536000569106299E-3</v>
-      </c>
-      <c r="C90" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F90" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="24">
-        <v>2.4512000189815801E-2</v>
-      </c>
-      <c r="B91" s="24">
-        <v>7.3536000569447398E-3</v>
-      </c>
-      <c r="C91" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="24">
-        <v>2.4512000208232999E-2</v>
-      </c>
-      <c r="B92" s="24">
-        <v>7.3536000624699199E-3</v>
-      </c>
-      <c r="C92" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F92" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G92" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:G102">
-    <sortCondition ref="A2:A101"/>
-  </sortState>
-  <mergeCells count="1">
-    <mergeCell ref="C1:G1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89674211-7884-4AFC-A4FF-409C76874243}">
   <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="20.7109375" style="6" customWidth="1"/>
+    <col min="1" max="7" width="20.6640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="20">
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="19">
         <v>15.247913258138301</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="19">
         <v>4.57437397744149</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>187</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -6996,14 +7084,14 @@
         <v>191</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="20">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="19">
         <v>15.247913253396799</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="19">
         <v>4.57437397601905</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>186</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -7019,14 +7107,14 @@
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="19">
         <v>15.2479132533784</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="19">
         <v>4.57437397601353</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>195</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -7036,14 +7124,14 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="19">
         <v>15.247913154332</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="19">
         <v>4.5743739462996098</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>186</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -7053,14 +7141,14 @@
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="19">
         <v>15.247913154320701</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="19">
         <v>4.5743739462962099</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>187</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -7070,14 +7158,14 @@
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="19">
         <v>15.247913154317301</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="19">
         <v>4.5743739462951902</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>187</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -7090,14 +7178,14 @@
         <v>191</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="19">
         <v>15.2479131543167</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="19">
         <v>4.5743739462950197</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>199</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -7107,28 +7195,28 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="20">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="19">
         <v>15.2479131543087</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="19">
         <v>4.5743739462926296</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>186</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="20">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="19">
         <v>15.247913154307801</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="19">
         <v>4.5743739462923596</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>202</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -7138,14 +7226,14 @@
         <v>191</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="19">
         <v>15.247913154298001</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="19">
         <v>4.5743739462894002</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>187</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -7158,14 +7246,14 @@
         <v>188</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="20">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="19">
         <v>15.2479131542971</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="19">
         <v>4.5743739462891497</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>203</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -7181,14 +7269,14 @@
         <v>206</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="20">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="19">
         <v>15.247913154296199</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="19">
         <v>4.5743739462888797</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>207</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -7201,14 +7289,14 @@
         <v>197</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="20">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="19">
         <v>15.247913154295199</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="19">
         <v>4.5743739462885697</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="13" t="s">
         <v>208</v>
       </c>
       <c r="D14" s="6" t="s">
@@ -7221,28 +7309,28 @@
         <v>197</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="20">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="19">
         <v>15.247913154293901</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="19">
         <v>4.5743739462881896</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="13" t="s">
         <v>186</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="20">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="19">
         <v>15.247913154293901</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="19">
         <v>4.5743739462881896</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="13" t="s">
         <v>210</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -7255,28 +7343,28 @@
         <v>206</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="20">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="19">
         <v>15.247913154293901</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="19">
         <v>4.5743739462881896</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="13" t="s">
         <v>186</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="20">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="19">
         <v>15.247913154293901</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="19">
         <v>4.5743739462881896</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="13" t="s">
         <v>212</v>
       </c>
       <c r="D18" s="6" t="s">
@@ -7292,14 +7380,14 @@
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="20">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="19">
         <v>15.247913154293901</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B19" s="19">
         <v>4.5743739462881896</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="13" t="s">
         <v>215</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -7315,14 +7403,14 @@
         <v>191</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="20">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="19">
         <v>15.247913154293901</v>
       </c>
-      <c r="B20" s="20">
+      <c r="B20" s="19">
         <v>4.5743739462881896</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="13" t="s">
         <v>187</v>
       </c>
       <c r="D20" s="6" t="s">
@@ -7332,14 +7420,14 @@
         <v>206</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="20">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="19">
         <v>15.247913154293901</v>
       </c>
-      <c r="B21" s="20">
+      <c r="B21" s="19">
         <v>4.5743739462881896</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="13" t="s">
         <v>187</v>
       </c>
       <c r="D21" s="6" t="s">
@@ -7355,28 +7443,28 @@
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="20">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="19">
         <v>15.247913154293901</v>
       </c>
-      <c r="B22" s="20">
+      <c r="B22" s="19">
         <v>4.5743739462881896</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="13" t="s">
         <v>186</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="20">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="19">
         <v>15.2479131542938</v>
       </c>
-      <c r="B23" s="20">
+      <c r="B23" s="19">
         <v>4.5743739462881603</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="13" t="s">
         <v>207</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -7386,14 +7474,14 @@
         <v>191</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="20">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="19">
         <v>15.2479131542927</v>
       </c>
-      <c r="B24" s="20">
+      <c r="B24" s="19">
         <v>4.5743739462878201</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="13" t="s">
         <v>207</v>
       </c>
       <c r="D24" s="6" t="s">
@@ -7409,14 +7497,14 @@
         <v>191</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="20">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="19">
         <v>15.2479131542904</v>
       </c>
-      <c r="B25" s="20">
+      <c r="B25" s="19">
         <v>4.5743739462871398</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="13" t="s">
         <v>187</v>
       </c>
       <c r="D25" s="6" t="s">
@@ -7432,14 +7520,14 @@
         <v>191</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="20">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="19">
         <v>15.2479131542877</v>
       </c>
-      <c r="B26" s="20">
+      <c r="B26" s="19">
         <v>4.57437394628632</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="13" t="s">
         <v>199</v>
       </c>
       <c r="D26" s="6" t="s">
@@ -7449,14 +7537,14 @@
         <v>220</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="20">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="19">
         <v>15.247913154287501</v>
       </c>
-      <c r="B27" s="20">
+      <c r="B27" s="19">
         <v>4.5743739462862498</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="13" t="s">
         <v>186</v>
       </c>
       <c r="D27" s="6" t="s">
@@ -7466,28 +7554,28 @@
         <v>206</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="20">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="19">
         <v>15.2479131542838</v>
       </c>
-      <c r="B28" s="20">
+      <c r="B28" s="19">
         <v>4.57437394628516</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="13" t="s">
         <v>210</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="20">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="19">
         <v>15.247913154282701</v>
       </c>
-      <c r="B29" s="20">
+      <c r="B29" s="19">
         <v>4.5743739462848199</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="13" t="s">
         <v>187</v>
       </c>
       <c r="D29" s="6" t="s">
@@ -7503,14 +7591,14 @@
         <v>191</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="20">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="19">
         <v>15.2479131542822</v>
       </c>
-      <c r="B30" s="20">
+      <c r="B30" s="19">
         <v>4.5743739462846804</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="13" t="s">
         <v>222</v>
       </c>
       <c r="D30" s="6" t="s">
@@ -7523,14 +7611,14 @@
         <v>206</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="20">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="19">
         <v>15.247913154280701</v>
       </c>
-      <c r="B31" s="20">
+      <c r="B31" s="19">
         <v>4.5743739462842203</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="13" t="s">
         <v>223</v>
       </c>
       <c r="D31" s="6" t="s">
@@ -7543,14 +7631,14 @@
         <v>189</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="20">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="19">
         <v>15.247913154280299</v>
       </c>
-      <c r="B32" s="20">
+      <c r="B32" s="19">
         <v>4.5743739462841004</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="13" t="s">
         <v>186</v>
       </c>
       <c r="D32" s="6" t="s">
@@ -7563,14 +7651,14 @@
         <v>225</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="20">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="19">
         <v>15.247913154270901</v>
       </c>
-      <c r="B33" s="20">
+      <c r="B33" s="19">
         <v>4.5743739462812796</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="13" t="s">
         <v>226</v>
       </c>
       <c r="D33" s="6" t="s">
@@ -7586,14 +7674,14 @@
         <v>191</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="20">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="19">
         <v>15.247913154262701</v>
       </c>
-      <c r="B34" s="20">
+      <c r="B34" s="19">
         <v>4.5743739462788202</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="13" t="s">
         <v>215</v>
       </c>
       <c r="D34" s="6" t="s">
@@ -7603,14 +7691,14 @@
         <v>211</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="20">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="19">
         <v>15.2479131542626</v>
       </c>
-      <c r="B35" s="20">
+      <c r="B35" s="19">
         <v>4.57437394627879</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="13" t="s">
         <v>207</v>
       </c>
       <c r="D35" s="6" t="s">
@@ -7623,14 +7711,14 @@
         <v>204</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="20">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="19">
         <v>15.247913154262401</v>
       </c>
-      <c r="B36" s="20">
+      <c r="B36" s="19">
         <v>4.5743739462787198</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="13" t="s">
         <v>195</v>
       </c>
       <c r="D36" s="6" t="s">
@@ -7643,14 +7731,14 @@
         <v>228</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="20">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="19">
         <v>15.2479131542392</v>
       </c>
-      <c r="B37" s="20">
+      <c r="B37" s="19">
         <v>4.5743739462717601</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="13" t="s">
         <v>207</v>
       </c>
       <c r="D37" s="6" t="s">
@@ -7666,29 +7754,29 @@
         <v>191</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="21">
+    <row r="38" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="20">
         <v>15.247913149584599</v>
       </c>
-      <c r="B38" s="21">
+      <c r="B38" s="20">
         <v>4.5743739448753802</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="20">
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="19">
         <v>15.247913149584599</v>
       </c>
-      <c r="B39" s="20">
+      <c r="B39" s="19">
         <v>4.5743739448753802</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="13" t="s">
         <v>222</v>
       </c>
       <c r="D39" s="6" t="s">
@@ -7698,14 +7786,14 @@
         <v>191</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="20">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="19">
         <v>15.247913149584299</v>
       </c>
-      <c r="B40" s="20">
+      <c r="B40" s="19">
         <v>4.5743739448752896</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="13" t="s">
         <v>187</v>
       </c>
       <c r="D40" s="6" t="s">
@@ -7721,14 +7809,14 @@
         <v>191</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="20">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="19">
         <v>15.2479131495841</v>
       </c>
-      <c r="B41" s="20">
+      <c r="B41" s="19">
         <v>4.5743739448752496</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="13" t="s">
         <v>203</v>
       </c>
       <c r="D41" s="6" t="s">
@@ -7744,14 +7832,14 @@
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="20">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="19">
         <v>15.2479131495841</v>
       </c>
-      <c r="B42" s="20">
+      <c r="B42" s="19">
         <v>4.5743739448752496</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="13" t="s">
         <v>223</v>
       </c>
       <c r="D42" s="6" t="s">
@@ -7764,14 +7852,14 @@
         <v>231</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="20">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="19">
         <v>15.2479131495841</v>
       </c>
-      <c r="B43" s="20">
+      <c r="B43" s="19">
         <v>4.5743739448752301</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="13" t="s">
         <v>202</v>
       </c>
       <c r="D43" s="6" t="s">
@@ -7784,14 +7872,14 @@
         <v>211</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="20">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="19">
         <v>15.247913149583299</v>
       </c>
-      <c r="B44" s="20">
+      <c r="B44" s="19">
         <v>4.5743739448749903</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="13" t="s">
         <v>187</v>
       </c>
       <c r="D44" s="6" t="s">
@@ -7804,14 +7892,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="20">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="19">
         <v>15.247913149580199</v>
       </c>
-      <c r="B45" s="20">
+      <c r="B45" s="19">
         <v>4.5743739448740497</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="13" t="s">
         <v>187</v>
       </c>
       <c r="D45" s="6" t="s">
@@ -7824,14 +7912,14 @@
         <v>206</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="20">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="19">
         <v>15.247913149580199</v>
       </c>
-      <c r="B46" s="20">
+      <c r="B46" s="19">
         <v>4.5743739448740497</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="13" t="s">
         <v>202</v>
       </c>
       <c r="D46" s="6" t="s">
@@ -7841,14 +7929,14 @@
         <v>190</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="20">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="19">
         <v>15.247913149575201</v>
       </c>
-      <c r="B47" s="20">
+      <c r="B47" s="19">
         <v>4.57437394487257</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C47" s="13" t="s">
         <v>210</v>
       </c>
       <c r="D47" s="6" t="s">
@@ -7858,14 +7946,14 @@
         <v>206</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="20">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="19">
         <v>15.247913149572099</v>
       </c>
-      <c r="B48" s="20">
+      <c r="B48" s="19">
         <v>4.5743739448716498</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="13" t="s">
         <v>222</v>
       </c>
       <c r="D48" s="6" t="s">
@@ -7875,14 +7963,14 @@
         <v>232</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="20">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="19">
         <v>15.2479131495621</v>
       </c>
-      <c r="B49" s="20">
+      <c r="B49" s="19">
         <v>4.57437394486863</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C49" s="13" t="s">
         <v>210</v>
       </c>
       <c r="D49" s="6" t="s">
@@ -7892,14 +7980,14 @@
         <v>190</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="20">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="19">
         <v>15.247913149555901</v>
       </c>
-      <c r="B50" s="20">
+      <c r="B50" s="19">
         <v>4.5743739448667897</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C50" s="13" t="s">
         <v>203</v>
       </c>
       <c r="D50" s="6" t="s">
@@ -7915,14 +8003,14 @@
         <v>200</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="20">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="19">
         <v>15.2479131495556</v>
       </c>
-      <c r="B51" s="20">
+      <c r="B51" s="19">
         <v>4.5743739448666902</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C51" s="13" t="s">
         <v>207</v>
       </c>
       <c r="D51" s="6" t="s">
@@ -7938,14 +8026,14 @@
         <v>191</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="20">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="19">
         <v>15.2479131495556</v>
       </c>
-      <c r="B52" s="20">
+      <c r="B52" s="19">
         <v>4.5743739448666902</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C52" s="13" t="s">
         <v>187</v>
       </c>
       <c r="D52" s="6" t="s">
@@ -7961,14 +8049,14 @@
         <v>236</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="20">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="19">
         <v>15.247913149554901</v>
       </c>
-      <c r="B53" s="20">
+      <c r="B53" s="19">
         <v>4.57437394486647</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C53" s="13" t="s">
         <v>237</v>
       </c>
       <c r="D53" s="6" t="s">
@@ -7984,14 +8072,14 @@
         <v>191</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="20">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="19">
         <v>15.2479131495543</v>
       </c>
-      <c r="B54" s="20">
+      <c r="B54" s="19">
         <v>4.5743739448662897</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C54" s="13" t="s">
         <v>203</v>
       </c>
       <c r="D54" s="6" t="s">
@@ -8007,14 +8095,14 @@
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="20">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="19">
         <v>15.2479131495529</v>
       </c>
-      <c r="B55" s="20">
+      <c r="B55" s="19">
         <v>4.5743739448658696</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C55" s="13" t="s">
         <v>238</v>
       </c>
       <c r="D55" s="6" t="s">
@@ -8027,14 +8115,14 @@
         <v>189</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="20">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="19">
         <v>15.247913149552099</v>
       </c>
-      <c r="B56" s="20">
+      <c r="B56" s="19">
         <v>4.5743739448656298</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C56" s="13" t="s">
         <v>210</v>
       </c>
       <c r="D56" s="6" t="s">
@@ -8044,14 +8132,14 @@
         <v>239</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="20">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="19">
         <v>15.247913149547299</v>
       </c>
-      <c r="B57" s="20">
+      <c r="B57" s="19">
         <v>4.5743739448641998</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C57" s="13" t="s">
         <v>186</v>
       </c>
       <c r="D57" s="6" t="s">
@@ -8064,14 +8152,14 @@
         <v>225</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="20">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="19">
         <v>15.2479131495465</v>
       </c>
-      <c r="B58" s="20">
+      <c r="B58" s="19">
         <v>4.57437394486396</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C58" s="13" t="s">
         <v>203</v>
       </c>
       <c r="D58" s="6" t="s">
@@ -8087,14 +8175,14 @@
         <v>193</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="20">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="19">
         <v>15.247913149543001</v>
       </c>
-      <c r="B59" s="20">
+      <c r="B59" s="19">
         <v>4.5743739448629199</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C59" s="13" t="s">
         <v>240</v>
       </c>
       <c r="D59" s="6" t="s">
@@ -8110,14 +8198,14 @@
         <v>193</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="20">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="19">
         <v>15.247913149543001</v>
       </c>
-      <c r="B60" s="20">
+      <c r="B60" s="19">
         <v>4.5743739448629004</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C60" s="13" t="s">
         <v>241</v>
       </c>
       <c r="D60" s="6" t="s">
@@ -8127,14 +8215,14 @@
         <v>197</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="20">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="19">
         <v>15.247913149541199</v>
       </c>
-      <c r="B61" s="20">
+      <c r="B61" s="19">
         <v>4.5743739448623604</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="C61" s="13" t="s">
         <v>195</v>
       </c>
       <c r="D61" s="6" t="s">
@@ -8147,14 +8235,14 @@
         <v>197</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="20">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="19">
         <v>15.247913149534</v>
       </c>
-      <c r="B62" s="20">
+      <c r="B62" s="19">
         <v>4.5743739448602101</v>
       </c>
-      <c r="C62" s="14" t="s">
+      <c r="C62" s="13" t="s">
         <v>186</v>
       </c>
       <c r="D62" s="6" t="s">
@@ -8167,14 +8255,14 @@
         <v>189</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="20">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="19">
         <v>15.2479131495214</v>
       </c>
-      <c r="B63" s="20">
+      <c r="B63" s="19">
         <v>4.5743739448564202</v>
       </c>
-      <c r="C63" s="14" t="s">
+      <c r="C63" s="13" t="s">
         <v>242</v>
       </c>
       <c r="D63" s="6" t="s">
@@ -8184,14 +8272,14 @@
         <v>197</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="20">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="19">
         <v>15.247913149518901</v>
       </c>
-      <c r="B64" s="20">
+      <c r="B64" s="19">
         <v>4.5743739448556697</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="C64" s="13" t="s">
         <v>187</v>
       </c>
       <c r="D64" s="6" t="s">
@@ -8207,28 +8295,28 @@
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="20">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="19">
         <v>15.2479131495139</v>
       </c>
-      <c r="B65" s="20">
+      <c r="B65" s="19">
         <v>4.5743739448541696</v>
       </c>
-      <c r="C65" s="14" t="s">
+      <c r="C65" s="13" t="s">
         <v>202</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="20">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="19">
         <v>15.2479131494917</v>
       </c>
-      <c r="B66" s="20">
+      <c r="B66" s="19">
         <v>4.5743739448475296</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C66" s="13" t="s">
         <v>203</v>
       </c>
       <c r="D66" s="6" t="s">
@@ -8241,14 +8329,14 @@
         <v>189</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="20">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="19">
         <v>15.247888532206</v>
       </c>
-      <c r="B67" s="20">
+      <c r="B67" s="19">
         <v>4.5743665596618204</v>
       </c>
-      <c r="C67" s="14" t="s">
+      <c r="C67" s="13" t="s">
         <v>187</v>
       </c>
       <c r="D67" s="6" t="s">
@@ -8264,14 +8352,14 @@
         <v>191</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="20">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="19">
         <v>15.2478885275056</v>
       </c>
-      <c r="B68" s="20">
+      <c r="B68" s="19">
         <v>4.5743665582516897</v>
       </c>
-      <c r="C68" s="14" t="s">
+      <c r="C68" s="13" t="s">
         <v>207</v>
       </c>
       <c r="D68" s="6" t="s">
@@ -8281,14 +8369,14 @@
         <v>190</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="20">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="19">
         <v>15.247888527484999</v>
       </c>
-      <c r="B69" s="20">
+      <c r="B69" s="19">
         <v>4.5743665582455204</v>
       </c>
-      <c r="C69" s="14" t="s">
+      <c r="C69" s="13" t="s">
         <v>212</v>
       </c>
       <c r="D69" s="6" t="s">
@@ -8298,28 +8386,28 @@
         <v>191</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="20">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="19">
         <v>15.247888527484999</v>
       </c>
-      <c r="B70" s="20">
+      <c r="B70" s="19">
         <v>4.5743665582455204</v>
       </c>
-      <c r="C70" s="14" t="s">
+      <c r="C70" s="13" t="s">
         <v>186</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="20">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="19">
         <v>15.247888527481701</v>
       </c>
-      <c r="B71" s="20">
+      <c r="B71" s="19">
         <v>4.5743665582445203</v>
       </c>
-      <c r="C71" s="14" t="s">
+      <c r="C71" s="13" t="s">
         <v>243</v>
       </c>
       <c r="D71" s="6" t="s">
@@ -8332,14 +8420,14 @@
         <v>190</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="20">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="19">
         <v>15.247888527480001</v>
       </c>
-      <c r="B72" s="20">
+      <c r="B72" s="19">
         <v>4.5743665582440203</v>
       </c>
-      <c r="C72" s="14" t="s">
+      <c r="C72" s="13" t="s">
         <v>215</v>
       </c>
       <c r="D72" s="6" t="s">
@@ -8352,14 +8440,14 @@
         <v>201</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="20">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="19">
         <v>15.247888527480001</v>
       </c>
-      <c r="B73" s="20">
+      <c r="B73" s="19">
         <v>4.5743665582440203</v>
       </c>
-      <c r="C73" s="14" t="s">
+      <c r="C73" s="13" t="s">
         <v>187</v>
       </c>
       <c r="D73" s="6" t="s">
@@ -8375,14 +8463,14 @@
         <v>244</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="20">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="19">
         <v>15.247888527480001</v>
       </c>
-      <c r="B74" s="20">
+      <c r="B74" s="19">
         <v>4.5743665582440203</v>
       </c>
-      <c r="C74" s="14" t="s">
+      <c r="C74" s="13" t="s">
         <v>203</v>
       </c>
       <c r="D74" s="6" t="s">
@@ -8398,28 +8486,28 @@
         <v>191</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="20">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="19">
         <v>15.247888527463401</v>
       </c>
-      <c r="B75" s="20">
+      <c r="B75" s="19">
         <v>4.5743665582390403</v>
       </c>
-      <c r="C75" s="14" t="s">
+      <c r="C75" s="13" t="s">
         <v>186</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="20">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="19">
         <v>15.2478885274629</v>
       </c>
-      <c r="B76" s="20">
+      <c r="B76" s="19">
         <v>4.5743665582388697</v>
       </c>
-      <c r="C76" s="14" t="s">
+      <c r="C76" s="13" t="s">
         <v>187</v>
       </c>
       <c r="D76" s="6" t="s">
@@ -8435,14 +8523,14 @@
         <v>236</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="20">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="19">
         <v>15.247888527461599</v>
       </c>
-      <c r="B77" s="20">
+      <c r="B77" s="19">
         <v>4.5743665582384896</v>
       </c>
-      <c r="C77" s="14" t="s">
+      <c r="C77" s="13" t="s">
         <v>195</v>
       </c>
       <c r="D77" s="6" t="s">
@@ -8455,14 +8543,14 @@
         <v>188</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="20">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="19">
         <v>15.2478885274615</v>
       </c>
-      <c r="B78" s="20">
+      <c r="B78" s="19">
         <v>4.5743665582384496</v>
       </c>
-      <c r="C78" s="14" t="s">
+      <c r="C78" s="13" t="s">
         <v>187</v>
       </c>
       <c r="D78" s="6" t="s">
@@ -8478,14 +8566,14 @@
         <v>191</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="20">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="19">
         <v>15.247888527453901</v>
       </c>
-      <c r="B79" s="20">
+      <c r="B79" s="19">
         <v>4.5743665582361901</v>
       </c>
-      <c r="C79" s="14" t="s">
+      <c r="C79" s="13" t="s">
         <v>237</v>
       </c>
       <c r="D79" s="6" t="s">
@@ -8498,14 +8586,14 @@
         <v>197</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="20">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="19">
         <v>15.247888527453901</v>
       </c>
-      <c r="B80" s="20">
+      <c r="B80" s="19">
         <v>4.5743665582361901</v>
       </c>
-      <c r="C80" s="14" t="s">
+      <c r="C80" s="13" t="s">
         <v>187</v>
       </c>
       <c r="D80" s="6" t="s">
@@ -8521,14 +8609,14 @@
         <v>189</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="20">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="19">
         <v>15.247888527453901</v>
       </c>
-      <c r="B81" s="20">
+      <c r="B81" s="19">
         <v>4.5743665582361901</v>
       </c>
-      <c r="C81" s="14" t="s">
+      <c r="C81" s="13" t="s">
         <v>246</v>
       </c>
       <c r="D81" s="6" t="s">
@@ -8544,14 +8632,14 @@
         <v>194</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="20">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="19">
         <v>15.247888527453799</v>
       </c>
-      <c r="B82" s="20">
+      <c r="B82" s="19">
         <v>4.5743665582361404</v>
       </c>
-      <c r="C82" s="14" t="s">
+      <c r="C82" s="13" t="s">
         <v>212</v>
       </c>
       <c r="D82" s="6" t="s">
